--- a/PM2/econ/week1/week1-win.xlsx
+++ b/PM2/econ/week1/week1-win.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7015ED2A-783C-482E-9772-1AEB7273BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C811F-6123-4250-94D6-976A62913567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valor Futuro" sheetId="1" r:id="rId1"/>
     <sheet name="Valor Presente" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>tasa/costo de oportunidad</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>para fin e inicio del 2014, es lo mismo pq es anual. Tendría que decir fines del 2013 para tener que hacerlo again</t>
+  </si>
+  <si>
+    <t>Ej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ej </t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,11 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,7 +1583,7 @@
         <v>124.28749999999999</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="E5:K5" si="0">E5*(1+$B$2)+F4</f>
+        <f t="shared" ref="F5:K5" si="0">E5*(1+$B$2)+F4</f>
         <v>187.95937499999999</v>
       </c>
       <c r="G5">
@@ -1849,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2406,4 +2420,157 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD708-FB60-4AFC-B160-D336DC608D69}">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <f>C7/(1+C3)</f>
+        <v>2866.666666666667</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>D5/(1+D3)</f>
+        <v>2083.3333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>C5+C6</f>
+        <v>3583.3333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <f>1.008^6</f>
+        <v>1.0489703016368703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f>12.69/6</f>
+        <v>2.1149999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>40000/(1.02115)^5</f>
+        <v>36025.687951611988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5">
+        <f>65000*(1.05)^6</f>
+        <v>87106.216640625003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>22.2/12</f>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="C17">
+        <f>4000/(1.0185)</f>
+        <v>3927.3441335297007</v>
+      </c>
+      <c r="D17">
+        <f>3927.34*100/25</f>
+        <v>15709.36</v>
+      </c>
+      <c r="E17">
+        <f>D17*0.15</f>
+        <v>2356.404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>D17*0.3</f>
+        <v>4712.808</v>
+      </c>
+      <c r="E18">
+        <f>15709.4*(1.0185)^2</f>
+        <v>16296.02434215</v>
+      </c>
+      <c r="F18">
+        <f>E18*0.3</f>
+        <v>4888.8073026450002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f>D18*(1.0185)^2</f>
+        <v>4888.7948545380004</v>
+      </c>
+      <c r="F19">
+        <f>(4000*100)/25</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>D18*(1.0185)^(3)</f>
+        <v>4979.2375593469533</v>
+      </c>
+      <c r="F20">
+        <f>16000/(1.0185)</f>
+        <v>15709.376534118803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PM2/econ/week1/week1-win.xlsx
+++ b/PM2/econ/week1/week1-win.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C811F-6123-4250-94D6-976A62913567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264D2EE-8E7A-4E9F-8E4E-461A9ACE03E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valor Futuro" sheetId="1" r:id="rId1"/>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1576,35 +1576,35 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5">
         <f>C4*(1+B2)+D4</f>
-        <v>73.349999999999994</v>
+        <v>68.460000000000008</v>
       </c>
       <c r="E5">
         <f>D5*(1+$B$2)+E4</f>
-        <v>124.28749999999999</v>
+        <v>107.90600000000001</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:K5" si="0">E5*(1+$B$2)+F4</f>
-        <v>187.95937499999999</v>
+        <v>151.29660000000001</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>267.54921875000002</v>
+        <v>199.02626000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>367.03652343750002</v>
+        <v>251.52888600000003</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>491.39565429687502</v>
+        <v>309.28177460000006</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>646.84456787109377</v>
+        <v>372.80995206000011</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>841.15570983886721</v>
+        <v>442.69094726600019</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -1661,35 +1661,35 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:K10" si="1">C10*(1+$B$2)</f>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <f>D10*(1+$B$2)</f>
-        <v>218.75</v>
+        <v>169.4</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>273.4375</v>
+        <v>186.34000000000003</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>341.796875</v>
+        <v>204.97400000000005</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>427.24609375</v>
+        <v>225.47140000000007</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>534.0576171875</v>
+        <v>248.01854000000012</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>667.572021484375</v>
+        <v>272.82039400000014</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>834.46502685546875</v>
+        <v>300.10243340000017</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD708-FB60-4AFC-B160-D336DC608D69}">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/PM2/econ/week1/week1-win.xlsx
+++ b/PM2/econ/week1/week1-win.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264D2EE-8E7A-4E9F-8E4E-461A9ACE03E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A1597A-4B7E-4C2C-B031-6ABAB7C4E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valor Futuro" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>tasa/costo de oportunidad</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ej </t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>hoy</t>
+  </si>
+  <si>
+    <t>1 año</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2424,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD708-FB60-4AFC-B160-D336DC608D69}">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2570,6 +2579,57 @@
         <v>15709.376534118803</v>
       </c>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>1*(1+16.8%)</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D24">
+        <f>16.8/12</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>B25*(1+1.4%)^(360)</f>
+        <v>149.16392378391404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>4.32275595605619E-4</v>
+      </c>
+      <c r="D27">
+        <f>B24*(1+C27)^(360)</f>
+        <v>1.1683419289046044</v>
+      </c>
+      <c r="E27">
+        <f>16.8/12</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
